--- a/MATLAB/X_values.xlsx
+++ b/MATLAB/X_values.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d807f57eb05146a8/Desktop/MATLAB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone-eVTOL\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{BB90F989-06BF-4615-9ECA-4E57900112F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C3B6FEA-D02D-43F1-8F90-368B9306E88F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4EF20A-7A1A-4622-BED3-28AD688425D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{0651A50D-9FB8-416A-AEBC-C099AF3976F8}"/>
+    <workbookView xWindow="5265" yWindow="3960" windowWidth="21600" windowHeight="11295" xr2:uid="{0651A50D-9FB8-416A-AEBC-C099AF3976F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/MATLAB/X_values.xlsx
+++ b/MATLAB/X_values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone-eVTOL\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4EF20A-7A1A-4622-BED3-28AD688425D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB7D4D7-8763-45BE-A50A-5B1E233628B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="3960" windowWidth="21600" windowHeight="11295" xr2:uid="{0651A50D-9FB8-416A-AEBC-C099AF3976F8}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8928" xr2:uid="{0651A50D-9FB8-416A-AEBC-C099AF3976F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
       <selection sqref="A1:A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
